--- a/Article Coding/Count - Logistic Article Coding KK.xlsx
+++ b/Article Coding/Count - Logistic Article Coding KK.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin King\Documents\GitHub\glm_int\Key Manuscripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin King\Documents\GitHub\glm_main\Article Coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1952E4-13D1-49A3-B867-CA4EF2954956}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9E99EC-ACDA-479E-A1D3-0DAA50D2D948}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{04AE24AD-208A-4845-90BB-1147D10A6039}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{04AE24AD-208A-4845-90BB-1147D10A6039}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -571,26 +576,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C4D847-FF09-4AF9-ACBE-A05749726084}">
   <dimension ref="A2:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.54296875" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -617,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -680,7 +685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -710,7 +715,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -743,7 +748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4</v>
       </c>
@@ -761,7 +766,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5</v>
       </c>
@@ -791,7 +796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6</v>
       </c>
@@ -809,7 +814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -839,7 +844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8</v>
       </c>
@@ -872,7 +877,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9</v>
       </c>
@@ -880,7 +885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>10</v>
       </c>
@@ -903,7 +908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>11</v>
       </c>
@@ -926,7 +931,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>12</v>
       </c>
@@ -934,7 +939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>13</v>
       </c>
@@ -960,7 +965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>14</v>
       </c>
@@ -971,7 +976,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>15</v>
       </c>
@@ -997,7 +1002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1023,7 +1028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1046,7 +1051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1068,7 +1073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1091,7 +1096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1099,7 +1104,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1110,7 +1115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1133,7 +1138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1176,7 +1181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1184,7 +1189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1192,7 +1197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1212,7 +1217,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1235,7 +1240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1255,7 +1260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1275,7 +1280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1295,7 +1300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1318,7 +1323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1361,7 +1366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1381,7 +1386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1401,7 +1406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1424,7 +1429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1447,7 +1452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1467,7 +1472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1490,7 +1495,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1513,7 +1518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1536,7 +1541,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1559,7 +1564,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>45</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1599,7 +1604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1619,7 +1624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1642,7 +1647,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>49</v>
       </c>
@@ -1662,7 +1667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1682,7 +1687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>51</v>
       </c>
@@ -1690,7 +1695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>52</v>
       </c>
@@ -1710,7 +1715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>53</v>
       </c>
@@ -1733,7 +1738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>54</v>
       </c>
@@ -1756,7 +1761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>55</v>
       </c>
